--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -143,7 +143,10 @@
     <t xml:space="preserve">Small</t>
   </si>
   <si>
-    <t xml:space="preserve">SingleUseId2</t>
+    <t xml:space="preserve">-., 0123456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId1</t>
   </si>
   <si>
     <t xml:space="preserve">Center</t>
@@ -155,7 +158,7 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;d&gt;</t>
+    <t xml:space="preserve">&lt;x-label&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">SingleUseId3</t>
@@ -164,25 +167,7 @@
     <t xml:space="preserve">Left</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SingleUseId4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SingleUseId5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
+    <t xml:space="preserve">&lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -1460,13 +1445,9 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
+      <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
+      <c r="I5"/>
       <c r="J5"/>
       <c r="L5" s="7" t="s">
         <v>1</v>
@@ -1499,7 +1480,9 @@
         <v>17</v>
       </c>
       <c r="G6"/>
-      <c r="H6"/>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
       <c r="I6"/>
       <c r="J6"/>
       <c r="L6" s="7" t="s">
@@ -1649,70 +1632,19 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -1647,6 +1653,23 @@
         <v>50</v>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
